--- a/biology/Zoologie/Hirondelle_d'Éthiopie/Hirondelle_d'Éthiopie.xlsx
+++ b/biology/Zoologie/Hirondelle_d'Éthiopie/Hirondelle_d'Éthiopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_d%27%C3%89thiopie</t>
+          <t>Hirondelle_d'Éthiopie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundo aethiopica
 L'Hirondelle dʼÉthiopie (Hirundo aethiopica) est une espèce de passereau de la famille des Hirundinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_d%27%C3%89thiopie</t>
+          <t>Hirondelle_d'Éthiopie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Sénégal, la Gambie, la Guinée, le Mali, la Côte d'Ivoire, le Burkina Faso, le Niger, le Ghana, le Togo, le Bénin, le Nigeria, le Cameroun, la Guinée équatoriale, la République centrafricaine, le Tchad, le Soudan, l'Érythrée, l'Éthiopie, Djibouti, la Somalie, le Kenya, l'Ouganda et la Tanzanie. Elle accidentelle en Israël.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_d%27%C3%89thiopie</t>
+          <t>Hirondelle_d'Éthiopie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe deux sous-espèces :
 Hirundo aethiopica aethiopica Blanford, 1869 ;
